--- a/data/trans_orig/P14B28-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B28-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBC80E14-C0F4-4402-9E8A-01EFA9D052F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88E05DBD-86D9-43EE-933A-56D8D3D6F24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{67C73996-D8CA-4689-9ED3-BB2116DA7911}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F65C8D7-F1E6-4329-B5A1-6550F06A559D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="224">
   <si>
     <t>Población cuya artritis le limita en 2012 (Tasa respuesta: 8,61%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>80,47%</t>
   </si>
   <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
   </si>
   <si>
     <t>85,91%</t>
   </si>
   <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
   </si>
   <si>
     <t>84,51%</t>
   </si>
   <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>19,53%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,583 +139,577 @@
     <t>74,22%</t>
   </si>
   <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
   </si>
   <si>
     <t>82,31%</t>
   </si>
   <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
   </si>
   <si>
     <t>79,36%</t>
   </si>
   <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya artritis le limita en 2015 (Tasa respuesta: 6,27%)</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>Población cuya artritis le limita en 2023 (Tasa respuesta: 13,68%)</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
     <t>70,23%</t>
   </si>
   <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
   </si>
   <si>
     <t>29,77%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya artritis le limita en 2015 (Tasa respuesta: 6,27%)</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>Población cuya artritis le limita en 2023 (Tasa respuesta: 13,68%)</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
+    <t>50,29%</t>
   </si>
   <si>
     <t>73,01%</t>
   </si>
   <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
   </si>
   <si>
     <t>62,26%</t>
   </si>
   <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
   </si>
   <si>
     <t>64,63%</t>
   </si>
   <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
   </si>
   <si>
     <t>26,99%</t>
   </si>
   <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
   </si>
   <si>
     <t>37,74%</t>
   </si>
   <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
   </si>
   <si>
     <t>35,37%</t>
   </si>
   <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D679D17F-4537-4E08-89C1-E944E3C72474}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375BE96B-5712-4C25-9DF1-9A5590BC2CDA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1878,7 +1872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A742F55D-9A9D-48A9-AC00-83076A01623B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0A7D34-9E83-4E61-9207-2CA6311DCF75}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2467,13 +2461,13 @@
         <v>86387</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>233</v>
@@ -2482,13 +2476,13 @@
         <v>264262</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>318</v>
@@ -2497,13 +2491,13 @@
         <v>350649</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>111</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2512,13 @@
         <v>33526</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -2533,13 +2527,13 @@
         <v>66791</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M14" s="7">
         <v>91</v>
@@ -2548,10 +2542,10 @@
         <v>100317</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>120</v>
@@ -2629,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1030DE52-81A6-4519-BDF6-CE1BEF6E3260}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E920ECE-357F-4FF3-B738-2D043E1A3F0B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2646,7 +2640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2756,10 +2750,10 @@
         <v>69</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>411</v>
@@ -2768,13 +2762,13 @@
         <v>226839</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>491</v>
@@ -2783,13 +2777,13 @@
         <v>282473</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,10 +2801,10 @@
         <v>78</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>96</v>
@@ -2819,13 +2813,13 @@
         <v>53527</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>117</v>
@@ -2834,13 +2828,13 @@
         <v>67975</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2902,13 @@
         <v>67503</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>248</v>
@@ -2923,13 +2917,13 @@
         <v>147398</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>328</v>
@@ -2938,13 +2932,13 @@
         <v>214901</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2953,13 @@
         <v>29634</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>112</v>
@@ -2974,13 +2968,13 @@
         <v>170068</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>148</v>
@@ -2989,13 +2983,13 @@
         <v>199702</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3057,13 @@
         <v>11511</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -3078,13 +3072,13 @@
         <v>31533</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -3093,13 +3087,13 @@
         <v>43043</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3108,13 @@
         <v>5684</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -3129,13 +3123,13 @@
         <v>22356</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -3144,13 +3138,13 @@
         <v>28041</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3212,13 @@
         <v>134649</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>709</v>
@@ -3233,13 +3227,13 @@
         <v>405769</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>882</v>
@@ -3248,13 +3242,13 @@
         <v>540418</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3263,13 @@
         <v>49765</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>246</v>
@@ -3284,13 +3278,13 @@
         <v>245952</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>312</v>
@@ -3299,13 +3293,13 @@
         <v>295717</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B28-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B28-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88E05DBD-86D9-43EE-933A-56D8D3D6F24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2677FB9-D68A-48CC-B0B4-967B3BB7FA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F65C8D7-F1E6-4329-B5A1-6550F06A559D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B8DAD74-3233-4E40-AB79-A81965AB5E24}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
   <si>
     <t>Población cuya artritis le limita en 2012 (Tasa respuesta: 8,61%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>80,47%</t>
   </si>
   <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
   </si>
   <si>
     <t>85,91%</t>
   </si>
   <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>84,51%</t>
   </si>
   <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>19,53%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,364 +139,382 @@
     <t>74,22%</t>
   </si>
   <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
   <si>
     <t>82,31%</t>
   </si>
   <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya artritis le limita en 2016 (Tasa respuesta: 6,27%)</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
     <t>72,04%</t>
   </si>
   <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
   </si>
   <si>
     <t>27,96%</t>
   </si>
   <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya artritis le limita en 2015 (Tasa respuesta: 6,27%)</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
   </si>
   <si>
     <t>20,18%</t>
   </si>
   <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>18,34%</t>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
   </si>
   <si>
     <t>Población cuya artritis le limita en 2023 (Tasa respuesta: 13,68%)</t>
@@ -1121,7 +1139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375BE96B-5712-4C25-9DF1-9A5590BC2CDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9CEF43-C8F4-4B86-831F-08929726EEAD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1872,7 +1890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0A7D34-9E83-4E61-9207-2CA6311DCF75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1054194B-95C7-4E2E-AC61-05653E906075}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2026,13 +2044,13 @@
         <v>222055</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,13 +2065,13 @@
         <v>16459</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -2062,13 +2080,13 @@
         <v>30503</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -2077,13 +2095,13 @@
         <v>46961</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,13 +2169,13 @@
         <v>34024</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>72</v>
@@ -2166,13 +2184,13 @@
         <v>80045</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>104</v>
@@ -2181,13 +2199,13 @@
         <v>114070</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,13 +2220,13 @@
         <v>15918</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -2217,13 +2235,13 @@
         <v>25648</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
@@ -2232,13 +2250,13 @@
         <v>41566</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,10 +2324,10 @@
         <v>8268</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>53</v>
@@ -2321,13 +2339,13 @@
         <v>6256</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2336,13 +2354,13 @@
         <v>14524</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,13 +2375,13 @@
         <v>1149</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -2372,13 +2390,13 @@
         <v>10641</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -2387,13 +2405,13 @@
         <v>11790</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2479,13 @@
         <v>86387</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>233</v>
@@ -2476,13 +2494,13 @@
         <v>264262</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>318</v>
@@ -2491,13 +2509,13 @@
         <v>350649</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,13 +2530,13 @@
         <v>33526</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -2527,13 +2545,13 @@
         <v>66791</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>91</v>
@@ -2542,13 +2560,13 @@
         <v>100317</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,7 +2641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E920ECE-357F-4FF3-B738-2D043E1A3F0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32564DAF-0F0F-462C-A645-68640B1D5BC1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2640,7 +2658,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2750,10 +2768,10 @@
         <v>69</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>411</v>
@@ -2762,13 +2780,13 @@
         <v>226839</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>491</v>
@@ -2777,13 +2795,13 @@
         <v>282473</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,10 +2819,10 @@
         <v>78</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>96</v>
@@ -2813,13 +2831,13 @@
         <v>53527</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>117</v>
@@ -2828,13 +2846,13 @@
         <v>67975</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2920,13 @@
         <v>67503</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>248</v>
@@ -2917,13 +2935,13 @@
         <v>147398</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>328</v>
@@ -2932,13 +2950,13 @@
         <v>214901</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2971,13 @@
         <v>29634</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>112</v>
@@ -2968,13 +2986,13 @@
         <v>170068</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>148</v>
@@ -2983,13 +3001,13 @@
         <v>199702</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3075,13 @@
         <v>11511</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -3072,13 +3090,13 @@
         <v>31533</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -3087,13 +3105,13 @@
         <v>43043</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3126,13 @@
         <v>5684</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -3123,13 +3141,13 @@
         <v>22356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -3138,13 +3156,13 @@
         <v>28041</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3230,13 @@
         <v>134649</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>709</v>
@@ -3227,13 +3245,13 @@
         <v>405769</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>882</v>
@@ -3242,13 +3260,13 @@
         <v>540418</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3281,13 @@
         <v>49765</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>246</v>
@@ -3278,13 +3296,13 @@
         <v>245952</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>312</v>
@@ -3293,13 +3311,13 @@
         <v>295717</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
